--- a/Design/MiniGame 기획서_김현지.xlsx
+++ b/Design/MiniGame 기획서_김현지.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B79EB0-DAC1-4F43-B308-05A260B8A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE2BAC-2B88-4D99-BBAA-F197C3463A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{FA43DEC0-5B9E-4960-B8B1-25E7B4477749}"/>
   </bookViews>
   <sheets>
     <sheet name="minigame기획서_김현지" sheetId="1" r:id="rId1"/>
     <sheet name="미니게임1" sheetId="2" r:id="rId2"/>
-    <sheet name="미니게임2" sheetId="3" r:id="rId3"/>
-    <sheet name="미니게임3" sheetId="4" r:id="rId4"/>
-    <sheet name="미니게임4" sheetId="5" r:id="rId5"/>
+    <sheet name="미니게임1 규칙" sheetId="6" r:id="rId3"/>
+    <sheet name="미니게임2" sheetId="3" r:id="rId4"/>
+    <sheet name="미니게임3" sheetId="4" r:id="rId5"/>
+    <sheet name="미니게임4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>담당 파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/19 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1번째 미니게임 - 점프 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)캐릭터가 벽을 밟고 위로 올라가는 방식의 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2 게임오버의 조건</t>
   </si>
   <si>
@@ -73,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1)  캐릭터가 벽을 밟지 못하고 추락 2) 캐릭터가 화면에 배치되어 있는 장애물과 충돌하여 추락 3) 캐릭터가 위로 올라가는 화면 밖으로 나감 4) 캐릭터의 체력이 전부 소진 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 게임의 모습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 3)캐릭터는 벽을 밟고 위로 올라갈 때 랜덤하게 배치되는 장애물에 닿아선 안 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2)화면 하단 가운데에 n의 속도로 n칸만큼 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 진행 시간에 따른 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,47 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3) 재화 획득에 따른 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 아이템 요소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1)스프링: 캐릭터의 점프력을 1회 2배 상승시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)코인: 인게임에서 사용가능한 재화이다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)보호막: 캐릭터를 1회 장애물로부터 보호해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 장애물 요소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)새: 10초~15초 사이에 출현하며 x축 기준 왼쪽에서 오른쪽으로 이동하며 캐릭터의 동선을 방해한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,23 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4)물약: 캐릭터의 전체 체력에 30%를 증가시켜준다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   - 1초~20초 사이에 벽의 길이는 10칸이며 줄어든다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,39 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 5)화면은 일정한 n의 속도로 계속해서 위로 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6)모든 아이템은 4초에 한번씩 랜덤 확률로 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MiniGame 기획서 - 김현지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.점수 환산 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 세부요소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1)벽의 크기는 n칸으로 랜덤하게 배치되며, 그 길이는 점점 줄어든다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)벽은 랜덤하게 배치되며, 구름벽은 5초에 한번씩 존재한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 구름 벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4)장애물(새)은 랜덤한 x축에 배치되며, 3초에 한번씩 n의 속도로 x축 상에서만 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2번째 미니게임 - 곰 먹이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +252,308 @@
   </si>
   <si>
     <t xml:space="preserve"> 2)구름 벽의 크기는 10칸으로 고정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/23 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)화면 상단 오른쪽에는 설정 버튼이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)화면 하단 가운데에 n의 속도로 n칸만큼 뛰어 오르고 있는 캐릭터의 정면 모습이 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -설정 버튼을 누르면 설정창이 나타나며 게임은 일시정지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)벽은 랜덤하게 배치되며, 구름벽은 5초에 한번씩 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6)화면은 일정한 n의 속도로 계속해서 위로 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.점수 환산 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 벽 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 구름 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 기본 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 게임 조작 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)플레이어가 스마트폰을 직접 움직여 캐릭터를 조작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)  캐릭터가 벽을 밟지 못하고 추락 2) 캐릭터가 화면에 배치되어 있는 장애물과 충돌하여 추락 3) 위로 올라가는 화면 밖으로 캐릭터가 나감 4) 캐릭터의 체력이 전부 소진 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)화면 최상단에 현재 점수, 캐릭터의 체력 바, 현재 진행 중인 게임에서 얻는 재화의 총량이 표기된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5)장애물은 x축상으로 이동하며 캐릭터의 동선을 방해한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본 체력은 1000으로 설정한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만약 캐릭터의 체력이 0이 됐을 경우, 화면을 어둡게 만들며 GameOver 문구를 띄운다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)화면 최상단에 바 형식으로 존재한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2)캐릭터의 체력이 50% 미만으로 줄어들 경우 채워져 있는 체력 바를 빨간색으로 바꾼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)스프링: 캐릭터의 점프력을 1회 3배 상승시킨다.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3)코인: 인게임에서 사용가능한 재화이다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)보호막: 캐릭터를 2회 장애물로부터 보호해준다.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4)물약: 캐릭터의 전체 체력에 31%를 증가시켜준다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2.0 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 체력 기본 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 체력의 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 체력이 0이 됐을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아이템은 4초에 한번씩 랜덤 확률로 등장한다.</t>
+  </si>
+  <si>
+    <t>3.0 장애물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 아이템 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위 중앙에 위치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 아이템 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 장애물 생성 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 장애물 생성 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤한 x축에 배치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6초에 한번씩 n의 속도로 x축 상에서만 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)캐릭터가 벽을 밟고 위로 올라가는 방식이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)캐릭터는 벽을 밟고 위로 올라갈 때 랜덤하게 배치되는 장애물에 닿으면 추락한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7)게임 오버시 게임 오버 문구와 함께 케릭터가 180도 회전하여 땅으로 추락한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 난이도에 따른 수치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)시작시 기초 체력의 30% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)벽 생성 확률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)아이템 등장 확률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 EASY 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 HARD 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 아이템 등장 확률 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)장애물 등장 확률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 화면 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 5초에 벽 5개 연속해서 밟을 시 콤보 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 20p/개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)벽 생성 확률 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)장애물 등장 확률 10% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,14 +970,14 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -806,7 +999,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -828,232 +1021,242 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CC2CD-DBB5-4180-B3E2-76FCB05F3B5A}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="54" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>25</v>
+      <c r="A22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
+      <c r="A26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
+      <c r="A28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>40</v>
+      <c r="A33" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
+      <c r="A37" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
+      <c r="A41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
+      <c r="A43" s="3"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
+      <c r="A47" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,10 +1265,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1175B-E087-4EA2-A9A9-52EA5650A0DE}">
+  <dimension ref="A2:A51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="61" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A03DA9-FF31-45CF-865A-5B68610151C3}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1073,32 +1498,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
@@ -1106,82 +1531,82 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
@@ -1189,42 +1614,42 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303D8EA-8AD3-4DF5-B6C8-5BD3877303F8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1245,7 +1670,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06BEA1-9911-4D67-A8DC-46FF33EF3241}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1266,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
